--- a/dfc_files/extracted_df5.xlsx
+++ b/dfc_files/extracted_df5.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>1 Collateral Strats</t>
+          <t>5 Performance Triggers</t>
         </is>
       </c>
       <c r="B1" t="inlineStr"/>
@@ -432,15 +432,19 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>All balances principal admin fee and grace interest USD Loans</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
+          <t>Test Date</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>07/02/2025</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>unless stated otherwise USD</t>
+          <t>Test Loan Portfolio Purchased</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
@@ -448,255 +452,239 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t># Loans</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>9124</t>
-        </is>
-      </c>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Principal Balance &amp; Admin Fee Only</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>90168991</t>
-        </is>
-      </c>
+          <t>Portfolio Cumulative Default Ratio</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Plus Interest During Grace</t>
+          <t>Cum. Default Rate</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>99252731</t>
+          <t>4.23%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Average Loan Size</t>
+          <t>Cum. Default Trigger Level</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>10878</t>
+          <t>11.00%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Current Balance</t>
+          <t>Cum. Default Rate Test Pass/Fail</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>103595247</t>
+          <t>PASS</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Average Loan Size</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>11354</t>
-        </is>
-      </c>
+          <t>Arrangement Ratio (Long)</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Loan Approved Balance &amp; Admin Fee</t>
+          <t>Arranagement Ratio</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>322995009</t>
+          <t>1.77%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Average Loan Size</t>
+          <t>Forbearance Ratio Trigger Level</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>35401</t>
+          <t>5.00%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Loans In Repayment Stage Balance</t>
+          <t>Forbearance Ratio Test Pass/Fail</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>95645151</t>
+          <t>PASS</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>MBA Course Balance</t>
+          <t>Ratio Numerator</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>21241503</t>
+          <t>1766724</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Non-MBA Course Balance</t>
+          <t>Ratio Denominator</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>8921736</t>
+          <t>99563532</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Non-Business Course Balance</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>25901808</t>
-        </is>
-      </c>
+          <t>Arrangement Ratio (Short)</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Female Borrower Balance</t>
+          <t>Arranagement Ratio</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>36391241</t>
+          <t>2.79%</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Low and Lower Middle-Income Countries Balance</t>
+          <t>Forbearance Ratio Trigger Level</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>81676701</t>
+          <t>12.00%</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Permitted Modification Loan Balance</t>
+          <t>Forbearance Ratio Test Pass/Fail</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>923890</t>
+          <t>PASS</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>WA Margin Loans (%)</t>
+          <t>Ratio Numerator</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>8.16%</t>
+          <t>2779456</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Lowest Margin (%)</t>
+          <t>Ratio Denominator</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>3.50%</t>
+          <t>99563532</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Last Maturity Date</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>15/03/2045</t>
-        </is>
-      </c>
+          <t>Weighted Average Margin</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>WA Original Repay Period (Years) 1</t>
+          <t>Weighted Average Interest Margin</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>8.16%</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Grace Loans WA Remaining Grace Period (Months)</t>
+          <t>Weighted Average Interest Margin Trigger Level (Min)</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>3.7</t>
+          <t>5.25%</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2 Delinquency &amp; Payment Arrangement Data</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr"/>
+          <t>Weighted Average Margin Test Pass/Fail</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>All balances principal admin fee and grace interest USD Loans # Loans</t>
+          <t>In-Study Forbearance Loans</t>
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
@@ -704,64 +692,88 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>unless stated otherwise USD</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr"/>
+          <t>Count of loans in In-Study Forbearance</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>15.00</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Delinquency</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr"/>
+          <t>In-Study Forbearance Loans Trigger Level</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>75.00</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>a Current 69723696</t>
+          <t>In-Study Forbearance Loans Test Pass/Fail</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>8281</t>
+          <t>PASS</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>b Delinquent &lt;=30 days</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>5097609151</t>
-        </is>
-      </c>
+          <t>Other Triggers Tested on All Receivables</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>c Delinquent 31-60 days</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>3347471103</t>
-        </is>
-      </c>
+          <t>Delinquency Ratio</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>d Delinquent 61-90 days</t>
+          <t>Delinquency Ratio</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>250352773</t>
+          <t>3.86%</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Delinquency Ratio Trigger Level</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>6.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Delinquency Ratio Test Pass/Fail</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>PASS</t>
         </is>
       </c>
     </row>
